--- a/Xports/UD_French-FQB/VERB_in_idiom.xlsx
+++ b/Xports/UD_French-FQB/VERB_in_idiom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>sent_id</t>
   </si>
@@ -26,6 +26,39 @@
   </si>
   <si>
     <t>right_context</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>FORM</t>
+  </si>
+  <si>
+    <t>LEMMA</t>
+  </si>
+  <si>
+    <t>UPOS</t>
+  </si>
+  <si>
+    <t>XPOS</t>
+  </si>
+  <si>
+    <t>FEATS</t>
+  </si>
+  <si>
+    <t>HEAD</t>
+  </si>
+  <si>
+    <t>DEPREL</t>
+  </si>
+  <si>
+    <t>DEPS</t>
+  </si>
+  <si>
+    <t>MISC</t>
+  </si>
+  <si>
+    <t>dist</t>
   </si>
 </sst>
 </file>
@@ -383,13 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,6 +434,39 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
